--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H2">
         <v>0.109032</v>
       </c>
       <c r="I2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N2">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O2">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P2">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q2">
-        <v>0.131306946848</v>
+        <v>0.126455531664</v>
       </c>
       <c r="R2">
-        <v>1.181762521632</v>
+        <v>1.138099784976</v>
       </c>
       <c r="S2">
-        <v>0.001325111915087219</v>
+        <v>0.001577617767290422</v>
       </c>
       <c r="T2">
-        <v>0.001325111915087219</v>
+        <v>0.001577617767290423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H3">
         <v>0.109032</v>
       </c>
       <c r="I3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N3">
         <v>23.79245</v>
       </c>
       <c r="O3">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P3">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q3">
-        <v>0.2882376009333333</v>
+        <v>0.2882376009333334</v>
       </c>
       <c r="R3">
-        <v>2.5941384084</v>
+        <v>2.594138408400001</v>
       </c>
       <c r="S3">
-        <v>0.002908810908649442</v>
+        <v>0.003595957839486491</v>
       </c>
       <c r="T3">
-        <v>0.002908810908649442</v>
+        <v>0.003595957839486492</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H4">
         <v>0.109032</v>
       </c>
       <c r="I4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N4">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O4">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P4">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q4">
-        <v>0.1584184320693333</v>
+        <v>0.1732584868373333</v>
       </c>
       <c r="R4">
-        <v>1.425765888624</v>
+        <v>1.559326381536</v>
       </c>
       <c r="S4">
-        <v>0.001598713220767468</v>
+        <v>0.002161516096383194</v>
       </c>
       <c r="T4">
-        <v>0.001598713220767468</v>
+        <v>0.002161516096383195</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H5">
         <v>0.109032</v>
       </c>
       <c r="I5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N5">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O5">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P5">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q5">
-        <v>0.03763828252799999</v>
+        <v>0.049028056</v>
       </c>
       <c r="R5">
-        <v>0.3387445427519999</v>
+        <v>0.441252504</v>
       </c>
       <c r="S5">
-        <v>0.0003798347142973842</v>
+        <v>0.0006116579577303652</v>
       </c>
       <c r="T5">
-        <v>0.0003798347142973842</v>
+        <v>0.0006116579577303654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H6">
         <v>0.109032</v>
       </c>
       <c r="I6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N6">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O6">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P6">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q6">
-        <v>0.1909154438986666</v>
+        <v>0.1415818802346667</v>
       </c>
       <c r="R6">
-        <v>1.718238995088</v>
+        <v>1.274236922112</v>
       </c>
       <c r="S6">
-        <v>0.001926663710924157</v>
+        <v>0.001766329134403399</v>
       </c>
       <c r="T6">
-        <v>0.001926663710924157</v>
+        <v>0.0017663291344034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I7">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J7">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N7">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O7">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P7">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q7">
-        <v>11.67429576919333</v>
+        <v>11.24296401473</v>
       </c>
       <c r="R7">
-        <v>105.06866192274</v>
+        <v>101.18667613257</v>
       </c>
       <c r="S7">
-        <v>0.1178136328302421</v>
+        <v>0.1402635341708376</v>
       </c>
       <c r="T7">
-        <v>0.1178136328302422</v>
+        <v>0.1402635341708376</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I8">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J8">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N8">
         <v>23.79245</v>
       </c>
       <c r="O8">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P8">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q8">
-        <v>25.62675536880555</v>
+        <v>25.62675536880556</v>
       </c>
       <c r="R8">
         <v>230.64079831925</v>
       </c>
       <c r="S8">
-        <v>0.2586178393405149</v>
+        <v>0.3197110008224531</v>
       </c>
       <c r="T8">
-        <v>0.2586178393405149</v>
+        <v>0.3197110008224532</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I9">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J9">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N9">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O9">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P9">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q9">
-        <v>14.08473561882556</v>
+        <v>15.40414173366889</v>
       </c>
       <c r="R9">
-        <v>126.76262056943</v>
+        <v>138.63727560302</v>
       </c>
       <c r="S9">
-        <v>0.1421390980247545</v>
+        <v>0.1921770235679954</v>
       </c>
       <c r="T9">
-        <v>0.1421390980247545</v>
+        <v>0.1921770235679955</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I10">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J10">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N10">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O10">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P10">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q10">
-        <v>3.346360973459999</v>
+        <v>4.359007961666666</v>
       </c>
       <c r="R10">
-        <v>30.11724876114</v>
+        <v>39.23107165499999</v>
       </c>
       <c r="S10">
-        <v>0.03377051180123644</v>
+        <v>0.0543815546666471</v>
       </c>
       <c r="T10">
-        <v>0.03377051180123644</v>
+        <v>0.05438155466664711</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I11">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J11">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N11">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O11">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P11">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q11">
-        <v>16.97399423626778</v>
+        <v>12.58782406487111</v>
       </c>
       <c r="R11">
-        <v>152.76594812641</v>
+        <v>113.29041658384</v>
       </c>
       <c r="S11">
-        <v>0.1712966644113453</v>
+        <v>0.1570415673790576</v>
       </c>
       <c r="T11">
-        <v>0.1712966644113453</v>
+        <v>0.1570415673790576</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H12">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N12">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O12">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P12">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q12">
-        <v>1.943522735372</v>
+        <v>0.71007137747</v>
       </c>
       <c r="R12">
-        <v>17.491704618348</v>
+        <v>6.390642397230001</v>
       </c>
       <c r="S12">
-        <v>0.01961347206454803</v>
+        <v>0.008858617779707348</v>
       </c>
       <c r="T12">
-        <v>0.01961347206454803</v>
+        <v>0.00885861777970735</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H13">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N13">
         <v>23.79245</v>
       </c>
       <c r="O13">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P13">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q13">
-        <v>4.266311448483333</v>
+        <v>1.618507847305556</v>
       </c>
       <c r="R13">
-        <v>38.39680303635</v>
+        <v>14.56657062575</v>
       </c>
       <c r="S13">
-        <v>0.04305438721686632</v>
+        <v>0.02019197343768813</v>
       </c>
       <c r="T13">
-        <v>0.04305438721686633</v>
+        <v>0.02019197343768813</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H14">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N14">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O14">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P14">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q14">
-        <v>2.344809865887334</v>
+        <v>0.9728786933088889</v>
       </c>
       <c r="R14">
-        <v>21.103288792986</v>
+        <v>8.75590823978</v>
       </c>
       <c r="S14">
-        <v>0.02366314628804954</v>
+        <v>0.01213731571712126</v>
       </c>
       <c r="T14">
-        <v>0.02366314628804955</v>
+        <v>0.01213731571712126</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H15">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N15">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O15">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P15">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q15">
-        <v>0.557098154892</v>
+        <v>0.2753016716666666</v>
       </c>
       <c r="R15">
-        <v>5.013883394028</v>
+        <v>2.477715045</v>
       </c>
       <c r="S15">
-        <v>0.00562207423629345</v>
+        <v>0.003434573425701172</v>
       </c>
       <c r="T15">
-        <v>0.00562207423629345</v>
+        <v>0.003434573425701172</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H16">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N16">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O16">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P16">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q16">
-        <v>2.825810169664666</v>
+        <v>0.7950086437511111</v>
       </c>
       <c r="R16">
-        <v>25.432291526982</v>
+        <v>7.15507779376</v>
       </c>
       <c r="S16">
-        <v>0.02851726291322506</v>
+        <v>0.009918267275675628</v>
       </c>
       <c r="T16">
-        <v>0.02851726291322507</v>
+        <v>0.00991826727567563</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H17">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I17">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J17">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N17">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O17">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P17">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q17">
-        <v>0.5685836956893333</v>
+        <v>0.5091820730500001</v>
       </c>
       <c r="R17">
-        <v>5.117253261204</v>
+        <v>4.58263865745</v>
       </c>
       <c r="S17">
-        <v>0.00573798300827476</v>
+        <v>0.006352388659152154</v>
       </c>
       <c r="T17">
-        <v>0.005737983008274761</v>
+        <v>0.006352388659152155</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H18">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I18">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J18">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N18">
         <v>23.79245</v>
       </c>
       <c r="O18">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P18">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q18">
-        <v>1.248122847338889</v>
+        <v>1.160608929027778</v>
       </c>
       <c r="R18">
-        <v>11.23310562605</v>
+        <v>10.44548036125</v>
       </c>
       <c r="S18">
-        <v>0.01259569654312268</v>
+        <v>0.01447937660944087</v>
       </c>
       <c r="T18">
-        <v>0.01259569654312269</v>
+        <v>0.01447937660944087</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H19">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I19">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J19">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N19">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O19">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P19">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q19">
-        <v>0.6859815092308891</v>
+        <v>0.6976374567444446</v>
       </c>
       <c r="R19">
-        <v>6.173833583078001</v>
+        <v>6.2787371107</v>
       </c>
       <c r="S19">
-        <v>0.00692272795333227</v>
+        <v>0.008703496259947834</v>
       </c>
       <c r="T19">
-        <v>0.00692272795333227</v>
+        <v>0.008703496259947836</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H20">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I20">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J20">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N20">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O20">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P20">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q20">
-        <v>0.162980819316</v>
+        <v>0.1974149083333333</v>
       </c>
       <c r="R20">
-        <v>1.466827373844</v>
+        <v>1.776734175</v>
       </c>
       <c r="S20">
-        <v>0.001644755519723656</v>
+        <v>0.002462883693709862</v>
       </c>
       <c r="T20">
-        <v>0.001644755519723657</v>
+        <v>0.002462883693709862</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H21">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I21">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J21">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N21">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O21">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P21">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q21">
-        <v>0.8266996625984445</v>
+        <v>0.5700893771555556</v>
       </c>
       <c r="R21">
-        <v>7.440296963386</v>
+        <v>5.1308043944</v>
       </c>
       <c r="S21">
-        <v>0.008342815055900206</v>
+        <v>0.007112248222828641</v>
       </c>
       <c r="T21">
-        <v>0.008342815055900208</v>
+        <v>0.007112248222828643</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H22">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N22">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O22">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P22">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q22">
-        <v>1.81508081188</v>
+        <v>0.4304257182400001</v>
       </c>
       <c r="R22">
-        <v>16.33572730692</v>
+        <v>3.87383146416</v>
       </c>
       <c r="S22">
-        <v>0.01831727314056427</v>
+        <v>0.005369850188906206</v>
       </c>
       <c r="T22">
-        <v>0.01831727314056427</v>
+        <v>0.005369850188906208</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H23">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N23">
         <v>23.79245</v>
       </c>
       <c r="O23">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P23">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q23">
-        <v>3.984362985166666</v>
+        <v>0.9810948937777779</v>
       </c>
       <c r="R23">
-        <v>35.85926686649999</v>
+        <v>8.829854044000001</v>
       </c>
       <c r="S23">
-        <v>0.04020904447491726</v>
+        <v>0.01223981834131472</v>
       </c>
       <c r="T23">
-        <v>0.04020904447491727</v>
+        <v>0.01223981834131472</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H24">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N24">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O24">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P24">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q24">
-        <v>2.189848010326667</v>
+        <v>0.5897322770844445</v>
       </c>
       <c r="R24">
-        <v>19.70863209294</v>
+        <v>5.30759049376</v>
       </c>
       <c r="S24">
-        <v>0.0220993158425426</v>
+        <v>0.007357306604388906</v>
       </c>
       <c r="T24">
-        <v>0.0220993158425426</v>
+        <v>0.00735730660438891</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H25">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N25">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O25">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P25">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q25">
-        <v>0.52028111268</v>
+        <v>0.1668802933333333</v>
       </c>
       <c r="R25">
-        <v>4.682530014119999</v>
+        <v>1.50192264</v>
       </c>
       <c r="S25">
-        <v>0.005250527242897392</v>
+        <v>0.002081943844677647</v>
       </c>
       <c r="T25">
-        <v>0.005250527242897393</v>
+        <v>0.002081943844677647</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H26">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N26">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O26">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P26">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q26">
-        <v>2.639060363753333</v>
+        <v>0.4819123504355556</v>
       </c>
       <c r="R26">
-        <v>23.75154327378</v>
+        <v>4.33721115392</v>
       </c>
       <c r="S26">
-        <v>0.02663263762192348</v>
+        <v>0.006012180537454962</v>
       </c>
       <c r="T26">
-        <v>0.02663263762192349</v>
+        <v>0.006012180537454965</v>
       </c>
     </row>
   </sheetData>
